--- a/app/data/absenteeism_data_45.xlsx
+++ b/app/data/absenteeism_data_45.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88322</v>
+        <v>36445</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruna da Rocha</t>
+          <t>Dr. João Lucas Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>5462.01</v>
+        <v>11561.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5746</v>
+        <v>48955</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Milena Campos</t>
+          <t>Lorena Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>8588.959999999999</v>
+        <v>5320.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38666</v>
+        <v>72679</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Otávio Ribeiro</t>
+          <t>Eloah Aragão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>11183.82</v>
+        <v>3564.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45471</v>
+        <v>54039</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice Silva</t>
+          <t>Theo da Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,138 +581,138 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>6863.21</v>
+        <v>3536.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32806</v>
+        <v>67407</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Pedro Porto</t>
+          <t>Brenda Porto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>8961.15</v>
+        <v>5256.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5653</v>
+        <v>14002</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Elisa Barros</t>
+          <t>Raquel Costela</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>3747.82</v>
+        <v>12301.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33888</v>
+        <v>71002</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alexia Ramos</t>
+          <t>Bruna Rodrigues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>11113.98</v>
+        <v>12236.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59056</v>
+        <v>21226</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maysa Porto</t>
+          <t>Francisco da Cruz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>9554.719999999999</v>
+        <v>10316.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78386</v>
+        <v>33907</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Enrico Santos</t>
+          <t>Milena da Cruz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>6526.13</v>
+        <v>8345.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18960</v>
+        <v>18544</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Rodrigues</t>
+          <t>João Vitor Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>4179.62</v>
+        <v>6655.68</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_45.xlsx
+++ b/app/data/absenteeism_data_45.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4778</v>
+        <v>74579</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Luiza Martins</t>
+          <t>Mariana Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,147 +490,147 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>7797.45</v>
+        <v>12095.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30218</v>
+        <v>30281</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stephany da Rocha</t>
+          <t>Ana Beatriz da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>11697.49</v>
+        <v>4540.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86707</v>
+        <v>67054</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esther das Neves</t>
+          <t>Lorena da Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>12304.28</v>
+        <v>11451.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15061</v>
+        <v>25744</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nicolas Porto</t>
+          <t>Dr. Nicolas da Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>3020.16</v>
+        <v>5735.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>51495</v>
+        <v>11966</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kamilly Pinto</t>
+          <t>Alícia Pires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>9846.85</v>
+        <v>2627.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67875</v>
+        <v>93983</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Ana Clara Nogueira</t>
+          <t>Emilly Ferreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>7044.28</v>
+        <v>5337.69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30628</v>
+        <v>97852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ryan Rodrigues</t>
+          <t>Maria Eduarda Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -671,48 +671,48 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>8832.799999999999</v>
+        <v>7817.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>75132</v>
+        <v>29922</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Agatha Pires</t>
+          <t>Dr. João Lucas Santos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>12138.13</v>
+        <v>5865.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68560</v>
+        <v>71243</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bryan Souza</t>
+          <t>Maria Fernanda Gomes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>8691.4</v>
+        <v>11851.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73444</v>
+        <v>717</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gustavo Nascimento</t>
+          <t>Cauê Aragão</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>3440.7</v>
+        <v>6882.63</v>
       </c>
     </row>
   </sheetData>
